--- a/medicine/Pharmacie/Drug_Master_File/Drug_Master_File.xlsx
+++ b/medicine/Pharmacie/Drug_Master_File/Drug_Master_File.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Un Drug Master File, DMF ou Active Substance Master File pour l'Europe, est un document renfermant des informations sur le mode de préparation d'une substance active médicamenteuse et sur la qualité de celle-ci. 
@@ -517,7 +529,9 @@
           <t>Autre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe un document assez semblable : le certificat de conformité à la pharmacopée européenne (CEP). Ce document sert également à décrire la fabrication d'une substance active et la qualité de celle-ci. Cette fois le produit est évalué une seule fois (avec révisions) par la Direction européenne de la qualité du médicament (DEQM), et le produit doit se conformer aux exigences de la monographie de la Pharmacopée européenne.
 </t>
